--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9B9AF9-C5B8-4426-A7FF-95DC99B337AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,8 +17,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,11 +67,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -112,7 +121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -144,9 +153,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,6 +205,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,19 +398,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>20200316</v>
       </c>
@@ -373,7 +418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20200317</v>
       </c>
@@ -381,7 +426,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20200318</v>
       </c>
@@ -389,12 +434,28 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2020319</v>
+        <v>20200319</v>
       </c>
       <c r="B4">
         <v>54.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20200320</v>
+      </c>
+      <c r="B5">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20200321</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -405,12 +466,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -419,12 +480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9B9AF9-C5B8-4426-A7FF-95DC99B337AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE26924-B56B-40F4-83CA-2263D9367928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -456,6 +456,14 @@
       </c>
       <c r="B6">
         <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20200322</v>
+      </c>
+      <c r="B7">
+        <v>55.2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE26924-B56B-40F4-83CA-2263D9367928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,8 +16,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,7 +78,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -121,7 +120,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -153,27 +152,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,24 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,19 +361,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>20200316</v>
       </c>
@@ -418,7 +381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>20200317</v>
       </c>
@@ -426,7 +389,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>20200318</v>
       </c>
@@ -434,7 +397,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>20200319</v>
       </c>
@@ -442,7 +405,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>20200320</v>
       </c>
@@ -450,7 +413,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>20200321</v>
       </c>
@@ -458,11 +421,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>20200322</v>
       </c>
       <c r="B7">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>20200323</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>20200324</v>
+      </c>
+      <c r="B9">
         <v>55.2</v>
       </c>
     </row>
@@ -474,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -488,12 +467,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3586C699-AB8D-4476-918B-D109C8E35F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,8 +17,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -120,7 +121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -152,9 +153,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,6 +205,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -361,19 +398,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>20200316</v>
       </c>
@@ -381,7 +418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20200317</v>
       </c>
@@ -389,7 +426,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20200318</v>
       </c>
@@ -397,7 +434,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20200319</v>
       </c>
@@ -405,7 +442,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20200320</v>
       </c>
@@ -413,7 +450,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20200321</v>
       </c>
@@ -421,7 +458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20200322</v>
       </c>
@@ -429,7 +466,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20200323</v>
       </c>
@@ -437,12 +474,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20200324</v>
       </c>
       <c r="B9">
         <v>55.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20200325</v>
+      </c>
+      <c r="B10">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20200326</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20200327</v>
+      </c>
+      <c r="B12">
+        <v>58.6</v>
       </c>
     </row>
   </sheetData>
@@ -453,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -467,12 +528,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3586C699-AB8D-4476-918B-D109C8E35F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F564D91-7B92-46A6-93C8-791F994860B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -504,6 +504,14 @@
       </c>
       <c r="B12">
         <v>58.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20200328</v>
+      </c>
+      <c r="B13">
+        <v>57.2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F564D91-7B92-46A6-93C8-791F994860B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,8 +16,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,7 +78,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -121,7 +120,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -153,27 +152,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,24 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,19 +361,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>20200316</v>
       </c>
@@ -418,7 +381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>20200317</v>
       </c>
@@ -426,7 +389,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>20200318</v>
       </c>
@@ -434,7 +397,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>20200319</v>
       </c>
@@ -442,7 +405,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>20200320</v>
       </c>
@@ -450,7 +413,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>20200321</v>
       </c>
@@ -458,7 +421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>20200322</v>
       </c>
@@ -466,7 +429,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>20200323</v>
       </c>
@@ -474,7 +437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>20200324</v>
       </c>
@@ -482,7 +445,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>20200325</v>
       </c>
@@ -490,7 +453,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>20200326</v>
       </c>
@@ -498,7 +461,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>20200327</v>
       </c>
@@ -506,12 +469,44 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>20200328</v>
       </c>
       <c r="B13">
         <v>57.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>20200329</v>
+      </c>
+      <c r="B14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>20200330</v>
+      </c>
+      <c r="B15">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>20200331</v>
+      </c>
+      <c r="B16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>20200401</v>
+      </c>
+      <c r="B17">
+        <v>56.8</v>
       </c>
     </row>
   </sheetData>
@@ -522,12 +517,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -536,12 +531,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
